--- a/ali_benchmark/测试.xlsx
+++ b/ali_benchmark/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,23 +88,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,31 +111,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,17 +126,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,10 +172,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +204,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,19 +239,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,37 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,19 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,13 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,31 +341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +366,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,17 +444,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -462,11 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,153 +513,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,6 +1435,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>OSS Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1444,25 +1470,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1494,7 +1501,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
@@ -1586,7 +1605,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
@@ -1662,7 +1693,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="139660685"/>
         <c:axId val="472562404"/>
@@ -1675,7 +1706,40 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+                  <a:t>Request Size/bytes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38068609667875"/>
+              <c:y val="0.881080592309262"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1684,25 +1748,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1749,6 +1794,7 @@
       <c:valAx>
         <c:axId val="472562404"/>
         <c:scaling>
+          <c:logBase val="5"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1768,6 +1814,32 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+                  <a:t>Latency/ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1777,25 +1849,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1841,7 +1894,74 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.158147549899831"/>
+          <c:y val="0.158227953444268"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1952,7 +2072,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.144242973708069"/>
+          <c:y val="0.162760416666667"/>
+          <c:w val="0.822514354789967"/>
+          <c:h val="0.540668402777778"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2207,6 +2337,7 @@
       <c:valAx>
         <c:axId val="411584849"/>
         <c:scaling>
+          <c:logBase val="5"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4042,8 +4173,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6146800" y="7366000"/>
-        <a:ext cx="6718300" cy="3190240"/>
+        <a:off x="5548630" y="7834630"/>
+        <a:ext cx="6075680" cy="3407410"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4055,16 +4186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>958850</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>97790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>724535</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29845</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4072,8 +4203,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8582660" y="177800"/>
-        <a:ext cx="4575810" cy="2743200"/>
+        <a:off x="3607435" y="280670"/>
+        <a:ext cx="5017135" cy="3691255"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4102,8 +4233,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8608060" y="3651250"/>
-        <a:ext cx="4575810" cy="2743200"/>
+        <a:off x="7750810" y="3879850"/>
+        <a:ext cx="4192270" cy="2926080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4377,16 +4508,16 @@
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="6" width="12.625"/>
-    <col min="8" max="14" width="12.625"/>
-    <col min="16" max="21" width="12.625"/>
+    <col min="3" max="6" width="12.6296296296296"/>
+    <col min="8" max="14" width="12.6296296296296"/>
+    <col min="16" max="21" width="12.6296296296296"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4841,101 +4972,101 @@
     </row>
     <row r="15" spans="9:21">
       <c r="I15">
-        <f>AVERAGE(I5:I14)</f>
+        <f t="shared" ref="I15:N15" si="0">AVERAGE(I5:I14)</f>
         <v>0.0163732767105102</v>
       </c>
       <c r="J15">
-        <f>AVERAGE(J5:J14)</f>
+        <f t="shared" si="0"/>
         <v>0.016145372390747</v>
       </c>
       <c r="K15">
-        <f>AVERAGE(K5:K14)</f>
+        <f t="shared" si="0"/>
         <v>0.0227810382843017</v>
       </c>
       <c r="L15">
-        <f>AVERAGE(L5:L14)</f>
+        <f t="shared" si="0"/>
         <v>0.0739938497543334</v>
       </c>
       <c r="M15">
-        <f>AVERAGE(M5:M14)</f>
+        <f t="shared" si="0"/>
         <v>0.458817744255066</v>
       </c>
       <c r="N15">
-        <f>AVERAGE(N5:N14)</f>
+        <f t="shared" si="0"/>
         <v>4.52318754196167</v>
       </c>
       <c r="P15">
-        <f>AVERAGE(P5:P14)</f>
+        <f t="shared" ref="P15:U15" si="1">AVERAGE(P5:P14)</f>
         <v>0.0246359586715698</v>
       </c>
       <c r="Q15">
-        <f>AVERAGE(Q5:Q14)</f>
+        <f t="shared" si="1"/>
         <v>0.0263666152954101</v>
       </c>
       <c r="R15">
-        <f>AVERAGE(R5:R14)</f>
+        <f t="shared" si="1"/>
         <v>0.0365656852722167</v>
       </c>
       <c r="S15">
-        <f>AVERAGE(S5:S14)</f>
+        <f t="shared" si="1"/>
         <v>0.082224440574646</v>
       </c>
       <c r="T15">
-        <f>AVERAGE(T5:T14)</f>
+        <f t="shared" si="1"/>
         <v>0.289632534980773</v>
       </c>
       <c r="U15">
-        <f>AVERAGE(U5:U14)</f>
+        <f t="shared" si="1"/>
         <v>2.05386538505554</v>
       </c>
     </row>
     <row r="16" spans="9:21">
       <c r="I16">
-        <f>1000*I15</f>
+        <f t="shared" ref="I16:N16" si="2">1000*I15</f>
         <v>16.3732767105102</v>
       </c>
       <c r="J16">
-        <f>1000*J15</f>
+        <f t="shared" si="2"/>
         <v>16.145372390747</v>
       </c>
       <c r="K16">
-        <f>1000*K15</f>
+        <f t="shared" si="2"/>
         <v>22.7810382843017</v>
       </c>
       <c r="L16">
-        <f>1000*L15</f>
+        <f t="shared" si="2"/>
         <v>73.9938497543334</v>
       </c>
       <c r="M16">
-        <f>1000*M15</f>
+        <f t="shared" si="2"/>
         <v>458.817744255066</v>
       </c>
       <c r="N16">
-        <f>1000*N15</f>
+        <f t="shared" si="2"/>
         <v>4523.18754196167</v>
       </c>
       <c r="P16">
-        <f>1000*P15</f>
+        <f t="shared" ref="P16:U16" si="3">1000*P15</f>
         <v>24.6359586715698</v>
       </c>
       <c r="Q16">
-        <f>1000*Q15</f>
+        <f t="shared" si="3"/>
         <v>26.3666152954101</v>
       </c>
       <c r="R16">
-        <f>1000*R15</f>
+        <f t="shared" si="3"/>
         <v>36.5656852722167</v>
       </c>
       <c r="S16">
-        <f>1000*S15</f>
+        <f t="shared" si="3"/>
         <v>82.224440574646</v>
       </c>
       <c r="T16">
-        <f>1000*T15</f>
+        <f t="shared" si="3"/>
         <v>289.632534980773</v>
       </c>
       <c r="U16">
-        <f>1000*U15</f>
+        <f t="shared" si="3"/>
         <v>2053.86538505554</v>
       </c>
     </row>
@@ -5386,101 +5517,101 @@
     </row>
     <row r="29" spans="9:21">
       <c r="I29">
-        <f>AVERAGE(I19:I28)</f>
+        <f t="shared" ref="I29:N29" si="4">AVERAGE(I19:I28)</f>
         <v>0.0148951053619384</v>
       </c>
       <c r="J29">
-        <f>AVERAGE(J19:J28)</f>
+        <f t="shared" si="4"/>
         <v>0.0172685384750366</v>
       </c>
       <c r="K29">
-        <f>AVERAGE(K19:K28)</f>
+        <f t="shared" si="4"/>
         <v>0.0222160816192627</v>
       </c>
       <c r="L29">
-        <f>AVERAGE(L19:L28)</f>
+        <f t="shared" si="4"/>
         <v>0.0621669054031372</v>
       </c>
       <c r="M29">
-        <f>AVERAGE(M19:M28)</f>
+        <f t="shared" si="4"/>
         <v>0.344270586967468</v>
       </c>
       <c r="N29">
-        <f>AVERAGE(N19:N28)</f>
+        <f t="shared" si="4"/>
         <v>3.90955843925476</v>
       </c>
       <c r="P29">
-        <f>AVERAGE(P19:P28)</f>
+        <f t="shared" ref="P29:U29" si="5">AVERAGE(P19:P28)</f>
         <v>0.0231925010681152</v>
       </c>
       <c r="Q29">
-        <f>AVERAGE(Q19:Q28)</f>
+        <f t="shared" si="5"/>
         <v>0.0209561109542846</v>
       </c>
       <c r="R29">
-        <f>AVERAGE(R19:R28)</f>
+        <f t="shared" si="5"/>
         <v>0.0290525913238525</v>
       </c>
       <c r="S29">
-        <f>AVERAGE(S19:S28)</f>
+        <f t="shared" si="5"/>
         <v>0.0644365310668945</v>
       </c>
       <c r="T29">
-        <f>AVERAGE(T19:T28)</f>
+        <f t="shared" si="5"/>
         <v>0.292951107025146</v>
       </c>
       <c r="U29">
-        <f>AVERAGE(U19:U28)</f>
+        <f t="shared" si="5"/>
         <v>2.31132793426513</v>
       </c>
     </row>
     <row r="30" spans="9:21">
       <c r="I30">
-        <f>1000*I29</f>
+        <f t="shared" ref="I30:N30" si="6">1000*I29</f>
         <v>14.8951053619384</v>
       </c>
       <c r="J30">
-        <f>1000*J29</f>
+        <f t="shared" si="6"/>
         <v>17.2685384750366</v>
       </c>
       <c r="K30">
-        <f>1000*K29</f>
+        <f t="shared" si="6"/>
         <v>22.2160816192627</v>
       </c>
       <c r="L30">
-        <f>1000*L29</f>
+        <f t="shared" si="6"/>
         <v>62.1669054031372</v>
       </c>
       <c r="M30">
-        <f>1000*M29</f>
+        <f t="shared" si="6"/>
         <v>344.270586967468</v>
       </c>
       <c r="N30">
-        <f>1000*N29</f>
+        <f t="shared" si="6"/>
         <v>3909.55843925476</v>
       </c>
       <c r="P30">
-        <f>1000*P29</f>
+        <f t="shared" ref="P30:U30" si="7">1000*P29</f>
         <v>23.1925010681152</v>
       </c>
       <c r="Q30">
-        <f>1000*Q29</f>
+        <f t="shared" si="7"/>
         <v>20.9561109542846</v>
       </c>
       <c r="R30">
-        <f>1000*R29</f>
+        <f t="shared" si="7"/>
         <v>29.0525913238525</v>
       </c>
       <c r="S30">
-        <f>1000*S29</f>
+        <f t="shared" si="7"/>
         <v>64.4365310668945</v>
       </c>
       <c r="T30">
-        <f>1000*T29</f>
+        <f t="shared" si="7"/>
         <v>292.951107025146</v>
       </c>
       <c r="U30">
-        <f>1000*U29</f>
+        <f t="shared" si="7"/>
         <v>2311.32793426513</v>
       </c>
     </row>

--- a/ali_benchmark/测试.xlsx
+++ b/ali_benchmark/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>OSS时延</t>
   </si>
@@ -60,16 +60,27 @@
   <si>
     <t>Shuffle Time</t>
   </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Worker number = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         IO size
+Files_per
+_worker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,25 +91,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,7 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,15 +134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +147,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,14 +170,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,8 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +199,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,16 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +244,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,109 +268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +292,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +358,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +429,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -438,30 +458,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +486,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,6 +505,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -529,34 +549,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,13 +585,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,103 +600,109 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2495,6 +2521,1072 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>read</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$68:$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100kb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1mb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$69:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0816616091493903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.781440937257143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.98970472783872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5640767028654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.172515252237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$68:$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100kb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1mb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$70:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0272785478462349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.269865294895227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.55524485547065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.400118669556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.2603116045521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="87769861"/>
+        <c:axId val="660074748"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="87769861"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660074748"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660074748"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87769861"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>OSS Throughput</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.397883411580595"/>
+          <c:y val="0.0375317371126511"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>read</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$99:$G$99</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100kb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1mb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$100:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0871043077176668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82650264928555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8639749846935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.0861541913166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.674052292192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$99:$G$99</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100kb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1mb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$101:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0357638113877253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.341387100483598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9469520949874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7159681729087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.2732377546684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="262935254"/>
+        <c:axId val="560349817"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="262935254"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+                  <a:t>I/O size/Bytes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.401638888888889"/>
+              <c:y val="0.881481481481482"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560349817"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560349817"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+                  <a:t>MB/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262935254"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.155592723004695"/>
+          <c:y val="0.179239462584892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2615,6 +3707,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3637,6 +4809,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4173,8 +6377,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5548630" y="7834630"/>
-        <a:ext cx="6075680" cy="3407410"/>
+        <a:off x="6871970" y="7366000"/>
+        <a:ext cx="7013575" cy="3190240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4203,8 +6407,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3607435" y="280670"/>
-        <a:ext cx="5017135" cy="3691255"/>
+        <a:off x="4346575" y="269240"/>
+        <a:ext cx="6249670" cy="3474085"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4233,12 +6437,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7750810" y="3879850"/>
-        <a:ext cx="4192270" cy="2926080"/>
+        <a:off x="9625965" y="3651250"/>
+        <a:ext cx="4578350" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5461000" y="14265275"/>
+        <a:ext cx="4574540" cy="2755900"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>715010</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9356090" y="16484600"/>
+        <a:ext cx="5414010" cy="3390265"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4505,19 +6769,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="6" width="12.6296296296296"/>
-    <col min="8" max="14" width="12.6296296296296"/>
-    <col min="16" max="21" width="12.6296296296296"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="6" width="12.6333333333333"/>
+    <col min="7" max="7" width="12.625"/>
+    <col min="8" max="14" width="12.6333333333333"/>
+    <col min="16" max="21" width="12.6333333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5685,6 +7951,506 @@
       </c>
       <c r="E48">
         <v>5.12895019054412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" ht="32" customHeight="1" spans="1:1">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="47" customHeight="1" spans="2:7">
+      <c r="B68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>0.0816616091493903</v>
+      </c>
+      <c r="D69">
+        <v>0.781440937257143</v>
+      </c>
+      <c r="E69">
+        <v>4.98970472783872</v>
+      </c>
+      <c r="F69">
+        <v>10.5640767028654</v>
+      </c>
+      <c r="G69">
+        <v>11.172515252237</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>0.0272785478462349</v>
+      </c>
+      <c r="D70">
+        <v>0.269865294895227</v>
+      </c>
+      <c r="E70">
+        <v>2.55524485547065</v>
+      </c>
+      <c r="F70">
+        <v>16.400118669556</v>
+      </c>
+      <c r="G70">
+        <v>18.2603116045521</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="C73">
+        <v>0.00786644899126692</v>
+      </c>
+      <c r="D73">
+        <v>0.0766878867586565</v>
+      </c>
+      <c r="E73">
+        <v>0.499033685245425</v>
+      </c>
+      <c r="F73">
+        <v>1.05189293904668</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1.11206325784334</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74">
+        <v>0.00815371249212867</v>
+      </c>
+      <c r="D74">
+        <v>0.0784923589163279</v>
+      </c>
+      <c r="E74">
+        <v>0.50139124862375</v>
+      </c>
+      <c r="F74">
+        <v>1.05865965822614</v>
+      </c>
+      <c r="G74">
+        <v>1.11211201343617</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75">
+        <v>0.00847832126142149</v>
+      </c>
+      <c r="D75">
+        <v>0.0792520355021584</v>
+      </c>
+      <c r="E75">
+        <v>0.49648648448244</v>
+      </c>
+      <c r="F75">
+        <v>1.05867041358679</v>
+      </c>
+      <c r="G75">
+        <v>1.1275793043916</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76">
+        <f>AVERAGE(C73:C75)</f>
+        <v>0.00816616091493903</v>
+      </c>
+      <c r="D76">
+        <f>AVERAGE(D73:D75)</f>
+        <v>0.0781440937257143</v>
+      </c>
+      <c r="E76">
+        <f>AVERAGE(E73:E75)</f>
+        <v>0.498970472783872</v>
+      </c>
+      <c r="F76">
+        <f>AVERAGE(F73:F75)</f>
+        <v>1.05640767028654</v>
+      </c>
+      <c r="G76">
+        <f>AVERAGE(G73:G75)</f>
+        <v>1.1172515252237</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77">
+        <f>10*C76</f>
+        <v>0.0816616091493903</v>
+      </c>
+      <c r="D77">
+        <f>10*D76</f>
+        <v>0.781440937257143</v>
+      </c>
+      <c r="E77">
+        <f>10*E76</f>
+        <v>4.98970472783872</v>
+      </c>
+      <c r="F77">
+        <f>10*F76</f>
+        <v>10.5640767028654</v>
+      </c>
+      <c r="G77">
+        <f>10*G76</f>
+        <v>11.172515252237</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80">
+        <v>0.00276733953668274</v>
+      </c>
+      <c r="D80">
+        <v>0.0261280596505576</v>
+      </c>
+      <c r="E80">
+        <v>0.262827413725521</v>
+      </c>
+      <c r="F80">
+        <v>1.58563275188364</v>
+      </c>
+      <c r="G80">
+        <v>1.81236061642455</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81">
+        <v>0.00268823499806147</v>
+      </c>
+      <c r="D81">
+        <v>0.0269080036336617</v>
+      </c>
+      <c r="E81">
+        <v>0.251017732396355</v>
+      </c>
+      <c r="F81">
+        <v>1.6405105381172</v>
+      </c>
+      <c r="G81">
+        <v>1.85755412111478</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82">
+        <v>0.00272798981912627</v>
+      </c>
+      <c r="D82">
+        <v>0.0279235251843488</v>
+      </c>
+      <c r="E82">
+        <v>0.25272831051932</v>
+      </c>
+      <c r="F82">
+        <v>1.69389231086597</v>
+      </c>
+      <c r="G82">
+        <v>1.80817874382631</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83">
+        <f>AVERAGE(C80:C82)</f>
+        <v>0.00272785478462349</v>
+      </c>
+      <c r="D83">
+        <f>AVERAGE(D80:D82)</f>
+        <v>0.0269865294895227</v>
+      </c>
+      <c r="E83">
+        <f>AVERAGE(E80:E82)</f>
+        <v>0.255524485547065</v>
+      </c>
+      <c r="F83">
+        <f>AVERAGE(F80:F82)</f>
+        <v>1.6400118669556</v>
+      </c>
+      <c r="G83">
+        <f>AVERAGE(G80:G82)</f>
+        <v>1.82603116045521</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84">
+        <f>10*C83</f>
+        <v>0.0272785478462349</v>
+      </c>
+      <c r="D84">
+        <f>10*D83</f>
+        <v>0.269865294895227</v>
+      </c>
+      <c r="E84">
+        <f>10*E83</f>
+        <v>2.55524485547065</v>
+      </c>
+      <c r="F84">
+        <f>10*F83</f>
+        <v>16.400118669556</v>
+      </c>
+      <c r="G84">
+        <f>10*G83</f>
+        <v>18.2603116045521</v>
+      </c>
+    </row>
+    <row r="99" ht="40.5" spans="2:7">
+      <c r="B99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>0.0871043077176668</v>
+      </c>
+      <c r="D100">
+        <v>0.82650264928555</v>
+      </c>
+      <c r="E100">
+        <v>5.8639749846935</v>
+      </c>
+      <c r="F100">
+        <v>18.0861541913166</v>
+      </c>
+      <c r="G100">
+        <v>17.674052292192</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>0.0357638113877253</v>
+      </c>
+      <c r="D101">
+        <v>0.341387100483598</v>
+      </c>
+      <c r="E101">
+        <v>2.9469520949874</v>
+      </c>
+      <c r="F101">
+        <v>16.7159681729087</v>
+      </c>
+      <c r="G101">
+        <v>19.2732377546684</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111">
+        <v>0.00835860580630981</v>
+      </c>
+      <c r="C111">
+        <v>0.0838307487731137</v>
+      </c>
+      <c r="D111">
+        <v>0.583998263780297</v>
+      </c>
+      <c r="E111">
+        <v>1.78426521519967</v>
+      </c>
+      <c r="F111">
+        <v>1.78698376958899</v>
+      </c>
+      <c r="H111">
+        <v>0.00359494673015965</v>
+      </c>
+      <c r="I111">
+        <v>0.0336469025104947</v>
+      </c>
+      <c r="J111">
+        <v>0.303279268454614</v>
+      </c>
+      <c r="K111">
+        <v>1.69335315557836</v>
+      </c>
+      <c r="L111">
+        <v>1.91530167282251</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112">
+        <v>0.00901358160367376</v>
+      </c>
+      <c r="C112">
+        <v>0.0812912423890668</v>
+      </c>
+      <c r="D112">
+        <v>0.58280901849268</v>
+      </c>
+      <c r="E112">
+        <v>1.82357611109563</v>
+      </c>
+      <c r="F112">
+        <v>1.80970586207255</v>
+      </c>
+      <c r="H112">
+        <v>0.00355964073242189</v>
+      </c>
+      <c r="I112">
+        <v>0.0348273539344152</v>
+      </c>
+      <c r="J112">
+        <v>0.293137907382766</v>
+      </c>
+      <c r="K112">
+        <v>1.67454947960476</v>
+      </c>
+      <c r="L112">
+        <v>1.93690918400966</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113">
+        <v>0.00875910490531645</v>
+      </c>
+      <c r="C113">
+        <v>0.0828288036234844</v>
+      </c>
+      <c r="D113">
+        <v>0.592385213135073</v>
+      </c>
+      <c r="E113">
+        <v>1.81800493109967</v>
+      </c>
+      <c r="F113">
+        <v>1.70552605599605</v>
+      </c>
+      <c r="H113">
+        <v>0.00357455595373605</v>
+      </c>
+      <c r="I113">
+        <v>0.0339418737001696</v>
+      </c>
+      <c r="J113">
+        <v>0.287668452658841</v>
+      </c>
+      <c r="K113">
+        <v>1.6468878166895</v>
+      </c>
+      <c r="L113">
+        <v>1.92976046956836</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114">
+        <f>AVERAGE(B111:B113)</f>
+        <v>0.00871043077176667</v>
+      </c>
+      <c r="C114">
+        <f>AVERAGE(C111:C113)</f>
+        <v>0.082650264928555</v>
+      </c>
+      <c r="D114">
+        <f>AVERAGE(D111:D113)</f>
+        <v>0.58639749846935</v>
+      </c>
+      <c r="E114">
+        <f>AVERAGE(E111:E113)</f>
+        <v>1.80861541913166</v>
+      </c>
+      <c r="F114">
+        <f>AVERAGE(F111:F113)</f>
+        <v>1.7674052292192</v>
+      </c>
+      <c r="H114">
+        <f>AVERAGE(H111:H113)</f>
+        <v>0.00357638113877253</v>
+      </c>
+      <c r="I114">
+        <f>AVERAGE(I111:I113)</f>
+        <v>0.0341387100483598</v>
+      </c>
+      <c r="J114">
+        <f>AVERAGE(J111:J113)</f>
+        <v>0.29469520949874</v>
+      </c>
+      <c r="K114">
+        <f>AVERAGE(K111:K113)</f>
+        <v>1.67159681729087</v>
+      </c>
+      <c r="L114">
+        <f>AVERAGE(L111:L113)</f>
+        <v>1.92732377546684</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115">
+        <f>10*B114</f>
+        <v>0.0871043077176668</v>
+      </c>
+      <c r="C115">
+        <f>10*C114</f>
+        <v>0.82650264928555</v>
+      </c>
+      <c r="D115">
+        <f>10*D114</f>
+        <v>5.8639749846935</v>
+      </c>
+      <c r="E115">
+        <f>10*E114</f>
+        <v>18.0861541913166</v>
+      </c>
+      <c r="F115">
+        <f>10*F114</f>
+        <v>17.674052292192</v>
+      </c>
+      <c r="H115">
+        <f>10*H114</f>
+        <v>0.0357638113877253</v>
+      </c>
+      <c r="I115">
+        <f>10*I114</f>
+        <v>0.341387100483598</v>
+      </c>
+      <c r="J115">
+        <f>10*J114</f>
+        <v>2.9469520949874</v>
+      </c>
+      <c r="K115">
+        <f>10*K114</f>
+        <v>16.7159681729087</v>
+      </c>
+      <c r="L115">
+        <f>10*L114</f>
+        <v>19.2732377546684</v>
       </c>
     </row>
   </sheetData>
